--- a/FunctionalProgramming/Рейтинг.xlsx
+++ b/FunctionalProgramming/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t xml:space="preserve">ФИО</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">Цыбурков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кузнецов</t>
   </si>
 </sst>
 </file>
@@ -89,11 +92,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -111,117 +115,22 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -229,23 +138,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -269,119 +163,25 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -390,10 +190,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -423,6 +223,9 @@
       <c r="C2" s="0" t="n">
         <v>4.5</v>
       </c>
+      <c r="D2" s="0" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -434,6 +237,9 @@
       <c r="C3" s="0" t="n">
         <v>4.5</v>
       </c>
+      <c r="D3" s="0" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -442,6 +248,9 @@
       <c r="C4" s="0" t="n">
         <v>4.5</v>
       </c>
+      <c r="D4" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -450,6 +259,9 @@
       <c r="C5" s="0" t="n">
         <v>2.5</v>
       </c>
+      <c r="D5" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -458,6 +270,9 @@
       <c r="C6" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -466,6 +281,9 @@
       <c r="C7" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="D7" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -474,6 +292,9 @@
       <c r="C8" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="D8" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -482,6 +303,9 @@
       <c r="C9" s="0" t="n">
         <v>4.8</v>
       </c>
+      <c r="D9" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -490,6 +314,9 @@
       <c r="C10" s="0" t="n">
         <v>3.8</v>
       </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -498,6 +325,9 @@
       <c r="C11" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="D11" s="0" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -506,6 +336,9 @@
       <c r="C12" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="D12" s="0" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -514,6 +347,9 @@
       <c r="C13" s="0" t="n">
         <v>4.5</v>
       </c>
+      <c r="D13" s="0" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -522,6 +358,9 @@
       <c r="C14" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -533,6 +372,9 @@
       <c r="C15" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="D15" s="0" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -540,6 +382,20 @@
       </c>
       <c r="C16" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/FunctionalProgramming/Рейтинг.xlsx
+++ b/FunctionalProgramming/Рейтинг.xlsx
@@ -193,7 +193,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -312,7 +312,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>

--- a/FunctionalProgramming/Рейтинг.xlsx
+++ b/FunctionalProgramming/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t xml:space="preserve">ФИО</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">КР2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КР3</t>
   </si>
   <si>
     <t xml:space="preserve">Гудков</t>
@@ -190,10 +193,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -215,10 +218,13 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>4.5</v>
@@ -226,35 +232,44 @@
       <c r="D2" s="0" t="n">
         <v>2.5</v>
       </c>
+      <c r="E2" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>4.5</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>4.5</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>4.5</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2.5</v>
@@ -262,32 +277,41 @@
       <c r="D5" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="E5" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>4</v>
@@ -295,10 +319,13 @@
       <c r="D8" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="E8" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>4.8</v>
@@ -306,10 +333,13 @@
       <c r="D9" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="E9" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>4</v>
@@ -317,32 +347,41 @@
       <c r="D10" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E10" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>4.5</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D12" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E12" s="0" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>4.5</v>
@@ -350,10 +389,13 @@
       <c r="D13" s="0" t="n">
         <v>3.5</v>
       </c>
+      <c r="E13" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>4</v>
@@ -361,41 +403,53 @@
       <c r="D14" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E14" s="0" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D15" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E15" s="0" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/FunctionalProgramming/Рейтинг.xlsx
+++ b/FunctionalProgramming/Рейтинг.xlsx
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">ФИО</t>
   </si>
   <si>
-    <t xml:space="preserve">Бонус</t>
-  </si>
-  <si>
     <t xml:space="preserve">КР1</t>
   </si>
   <si>
@@ -37,55 +34,67 @@
     <t xml:space="preserve">КР3</t>
   </si>
   <si>
+    <t xml:space="preserve">raiting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zachet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карпочев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дроздов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ерофеев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Куртюшкин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лачугина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пушко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ронгинский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Третьяков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цыбурков</t>
+  </si>
+  <si>
     <t xml:space="preserve">Гудков</t>
   </si>
   <si>
-    <t xml:space="preserve">Дроздов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ерофеев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Карпочев</t>
-  </si>
-  <si>
     <t xml:space="preserve">Карпухин</t>
   </si>
   <si>
     <t xml:space="preserve">Кочергин</t>
   </si>
   <si>
-    <t xml:space="preserve">Куртюшкин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лачугина</t>
-  </si>
-  <si>
     <t xml:space="preserve">Неволько</t>
   </si>
   <si>
     <t xml:space="preserve">Повалищев</t>
   </si>
   <si>
-    <t xml:space="preserve">Пушко</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ронгинский</t>
-  </si>
-  <si>
     <t xml:space="preserve">Сизых</t>
   </si>
   <si>
-    <t xml:space="preserve">Третьяков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Цыбурков</t>
-  </si>
-  <si>
     <t xml:space="preserve">Кузнецов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кулаков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Савинов</t>
   </si>
 </sst>
 </file>
@@ -125,12 +134,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -167,12 +182,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -185,6 +204,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -193,10 +272,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -209,7 +288,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
@@ -221,234 +300,457 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2.5</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>5</v>
+        <f aca="false">AVERAGE(B2:D2)</f>
+        <v>3.5</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">E2*0.4+F2*0.6</f>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>7</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <f aca="false">AVERAGE(B3:D3)</f>
+        <v>5.66666666666667</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">E3*0.4+F3*0.6</f>
+        <v>5.26666666666667</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>4.5</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>4.5</v>
+      <c r="E4" s="2" t="n">
+        <f aca="false">AVERAGE(B4:D4)</f>
+        <v>5.5</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">E4*0.4+F4*0.6</f>
+        <v>5.2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <f aca="false">AVERAGE(B5:D5)</f>
+        <v>4.66666666666667</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">E5*0.4+F5*0.6</f>
+        <v>4.86666666666667</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <f aca="false">AVERAGE(B6:D6)</f>
+        <v>4.66666666666667</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">E6*0.4+F6*0.6</f>
+        <v>4.86666666666667</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <f aca="false">AVERAGE(B7:D7)</f>
+        <v>5.33333333333333</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">E7*0.4+F7*0.6</f>
+        <v>5.13333333333333</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>5.5</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <f aca="false">AVERAGE(B8:D8)</f>
+        <v>4.83333333333333</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">E8*0.4+F8*0.6</f>
+        <v>4.93333333333333</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>7.5</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>4</v>
+        <v>4.5</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <f aca="false">AVERAGE(B9:D9)</f>
+        <v>5.66666666666667</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">E9*0.4+F9*0.6</f>
+        <v>5.26666666666667</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <f aca="false">AVERAGE(B10:D10)</f>
+        <v>5</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">E10*0.4+F10*0.6</f>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>4.8</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <f aca="false">AVERAGE(B11:D11)</f>
+        <v>4.93333333333333</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">E11*0.4+F11*0.6</f>
+        <v>1.97333333333333</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4.5</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>4.5</v>
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <f aca="false">AVERAGE(B12:D12)</f>
+        <v>4.16666666666667</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">E12*0.4+F12*0.6</f>
+        <v>3.46666666666667</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>5.5</v>
       </c>
       <c r="C13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <f aca="false">AVERAGE(B13:D13)</f>
         <v>4.5</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>4</v>
+      <c r="F13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">E13*0.4+F13*0.6</f>
+        <v>4.2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>3.5</v>
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <f aca="false">AVERAGE(B14:D14)</f>
+        <v>3.66666666666667</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">E14*0.4+F14*0.6</f>
+        <v>4.46666666666667</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>4.5</v>
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <f aca="false">AVERAGE(B15:D15)</f>
+        <v>4.66666666666667</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">E15*0.4+F15*0.6</f>
+        <v>4.26666666666667</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>4</v>
+        <v>3.5</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <f aca="false">AVERAGE(B16:D16)</f>
+        <v>3.83333333333333</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">E16*0.4+F16*0.6</f>
+        <v>4.23333333333333</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="C17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <f aca="false">AVERAGE(B17:D17)</f>
+        <v>3</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">E17*0.4+F17*0.6</f>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="0" t="n">
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <f aca="false">AVERAGE(B18:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">E18*0.4+F18*0.6</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <f aca="false">AVERAGE(B19:D19)</f>
+        <v>4</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <f aca="false">E19*0.4+F19*0.6</f>
         <v>4</v>
       </c>
     </row>
